--- a/tests/29-03-22/17V_circumference_10_new_setup/17V circumference test 1.xlsx
+++ b/tests/29-03-22/17V_circumference_10_new_setup/17V circumference test 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leouh\Documents\Rb_Controller\tests\29-03-22\17V_circumference_10_new_setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742D97E-50D0-4471-9516-961E6A3F66AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46630983-F7B5-40AC-8A88-E917E9FD5F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{1BF83579-D3BC-4834-BBC6-7BD065E8482D}"/>
   </bookViews>
@@ -139,7 +139,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>17V circumference test 1 (no foil)</a:t>
+              <a:t>17V step circumference (no foil)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -26591,15 +26591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>644979</xdr:colOff>
+      <xdr:colOff>651382</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>172890</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>25614</xdr:rowOff>
+      <xdr:rowOff>6403</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26926,8 +26926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3C2A7E-DBC7-458D-B1A3-2FED80CDC3DA}">
   <dimension ref="A1:F842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
